--- a/data/source/결과 정리_r2.0.xlsx
+++ b/data/source/결과 정리_r2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA129154-05AD-4D6F-8AF2-EC54E2BE7C9C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B81D57-05DC-42E1-A9ED-961C716CD8FA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="10860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="125">
   <si>
     <t>상부 넓이</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -508,6 +508,10 @@
   </si>
   <si>
     <t>Actual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark_poly</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1114,6 +1118,7 @@
     <xf numFmtId="176" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1129,7 +1134,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -9874,8 +9878,105 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Spark_Poly</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Linear-poly 비교'!$B$3:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Linear-poly 비교'!$H$3:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C83-428D-9EF7-68CED432EF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'Linear-poly 비교'!$C$2</c:f>
@@ -10410,7 +10511,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$H$3:$H$9</c:f>
+              <c:f>'Linear-poly 비교'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10440,7 +10541,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$J$3:$J$9</c:f>
+              <c:f>'Linear-poly 비교'!$K$3:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -10507,7 +10608,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$H$3:$H$9</c:f>
+              <c:f>'Linear-poly 비교'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10537,7 +10638,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$K$3:$K$9</c:f>
+              <c:f>'Linear-poly 비교'!$L$3:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -10604,7 +10705,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$H$3:$H$9</c:f>
+              <c:f>'Linear-poly 비교'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10634,7 +10735,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$L$3:$L$9</c:f>
+              <c:f>'Linear-poly 비교'!$M$3:$M$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -10674,7 +10775,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear-poly 비교'!$M$2</c:f>
+              <c:f>'Linear-poly 비교'!$N$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10709,7 +10810,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$H$3:$H$9</c:f>
+              <c:f>'Linear-poly 비교'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10739,7 +10840,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$M$3:$M$9</c:f>
+              <c:f>'Linear-poly 비교'!$N$3:$N$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -10779,7 +10880,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear-poly 비교'!$I$2</c:f>
+              <c:f>'Linear-poly 비교'!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10814,7 +10915,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$H$3:$H$9</c:f>
+              <c:f>'Linear-poly 비교'!$I$3:$I$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -10844,7 +10945,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$I$3:$I$9</c:f>
+              <c:f>'Linear-poly 비교'!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11318,7 +11419,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$N$3:$N$9</c:f>
+              <c:f>'Linear-poly 비교'!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11348,7 +11449,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$P$3:$P$9</c:f>
+              <c:f>'Linear-poly 비교'!$Q$3:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -11415,7 +11516,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$N$3:$N$9</c:f>
+              <c:f>'Linear-poly 비교'!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11445,7 +11546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$Q$3:$Q$9</c:f>
+              <c:f>'Linear-poly 비교'!$R$3:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -11512,7 +11613,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$N$3:$N$9</c:f>
+              <c:f>'Linear-poly 비교'!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11542,7 +11643,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$R$3:$R$9</c:f>
+              <c:f>'Linear-poly 비교'!$S$3:$S$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -11582,7 +11683,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear-poly 비교'!$S$2</c:f>
+              <c:f>'Linear-poly 비교'!$T$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11617,7 +11718,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$N$3:$N$9</c:f>
+              <c:f>'Linear-poly 비교'!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11647,7 +11748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$S$3:$S$9</c:f>
+              <c:f>'Linear-poly 비교'!$T$3:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
@@ -11687,7 +11788,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Linear-poly 비교'!$O$2</c:f>
+              <c:f>'Linear-poly 비교'!$P$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11722,7 +11823,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$N$3:$N$9</c:f>
+              <c:f>'Linear-poly 비교'!$O$3:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -11752,7 +11853,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Linear-poly 비교'!$O$3:$O$9</c:f>
+              <c:f>'Linear-poly 비교'!$P$3:$P$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -30368,7 +30469,7 @@
       <xdr:rowOff>84363</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>111857</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>69899</xdr:rowOff>
@@ -30398,13 +30499,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>54428</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>111578</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>383999</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>97114</xdr:rowOff>
@@ -30729,7 +30830,7 @@
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="73" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -30782,7 +30883,7 @@
       </c>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="73"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="46"/>
       <c r="C3" s="31" t="s">
         <v>7</v>
@@ -30849,7 +30950,7 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="73"/>
+      <c r="A4" s="74"/>
       <c r="B4" s="46" t="s">
         <v>98</v>
       </c>
@@ -30915,7 +31016,7 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5" s="73"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="46" t="s">
         <v>99</v>
       </c>
@@ -30981,7 +31082,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A6" s="73"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="48" t="s">
         <v>100</v>
       </c>
@@ -31047,7 +31148,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A7" s="74"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="51"/>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
@@ -31081,7 +31182,7 @@
       </c>
     </row>
     <row r="8" spans="1:26">
-      <c r="A8" s="73"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="42"/>
       <c r="C8" s="43" t="s">
         <v>29</v>
@@ -31117,7 +31218,7 @@
       </c>
     </row>
     <row r="9" spans="1:26">
-      <c r="A9" s="73"/>
+      <c r="A9" s="74"/>
       <c r="B9" s="46" t="s">
         <v>26</v>
       </c>
@@ -31187,7 +31288,7 @@
       </c>
     </row>
     <row r="10" spans="1:26">
-      <c r="A10" s="73"/>
+      <c r="A10" s="74"/>
       <c r="B10" s="46" t="s">
         <v>28</v>
       </c>
@@ -31256,7 +31357,7 @@
       </c>
     </row>
     <row r="11" spans="1:26">
-      <c r="A11" s="73"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="46">
         <v>30</v>
       </c>
@@ -31338,7 +31439,7 @@
       </c>
     </row>
     <row r="12" spans="1:26">
-      <c r="A12" s="73"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="46">
         <v>40</v>
       </c>
@@ -31420,7 +31521,7 @@
       </c>
     </row>
     <row r="13" spans="1:26">
-      <c r="A13" s="73"/>
+      <c r="A13" s="74"/>
       <c r="B13" s="46">
         <v>50</v>
       </c>
@@ -31502,7 +31603,7 @@
       </c>
     </row>
     <row r="14" spans="1:26">
-      <c r="A14" s="73"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="46">
         <v>60</v>
       </c>
@@ -31584,7 +31685,7 @@
       </c>
     </row>
     <row r="15" spans="1:26">
-      <c r="A15" s="73"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="46">
         <v>70</v>
       </c>
@@ -31666,7 +31767,7 @@
       </c>
     </row>
     <row r="16" spans="1:26">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="46">
         <v>80</v>
       </c>
@@ -31748,7 +31849,7 @@
       </c>
     </row>
     <row r="17" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A17" s="73"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="48">
         <v>90</v>
       </c>
@@ -31833,7 +31934,7 @@
       </c>
     </row>
     <row r="18" spans="1:26">
-      <c r="A18" s="74"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="52"/>
       <c r="C18" s="52" t="s">
         <v>29</v>
@@ -31869,7 +31970,7 @@
       </c>
     </row>
     <row r="19" spans="1:26">
-      <c r="A19" s="74"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="31" t="s">
         <v>26</v>
       </c>
@@ -31939,7 +32040,7 @@
       </c>
     </row>
     <row r="20" spans="1:26">
-      <c r="A20" s="74"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="31" t="s">
         <v>27</v>
       </c>
@@ -32005,7 +32106,7 @@
       </c>
     </row>
     <row r="21" spans="1:26">
-      <c r="A21" s="74"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="31">
         <v>30</v>
       </c>
@@ -32087,7 +32188,7 @@
       </c>
     </row>
     <row r="22" spans="1:26">
-      <c r="A22" s="74"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="31">
         <v>40</v>
       </c>
@@ -32169,7 +32270,7 @@
       </c>
     </row>
     <row r="23" spans="1:26">
-      <c r="A23" s="74"/>
+      <c r="A23" s="75"/>
       <c r="B23" s="31">
         <v>50</v>
       </c>
@@ -32251,7 +32352,7 @@
       </c>
     </row>
     <row r="24" spans="1:26">
-      <c r="A24" s="74"/>
+      <c r="A24" s="75"/>
       <c r="B24" s="31">
         <v>60</v>
       </c>
@@ -32336,7 +32437,7 @@
       </c>
     </row>
     <row r="25" spans="1:26">
-      <c r="A25" s="74"/>
+      <c r="A25" s="75"/>
       <c r="B25" s="31">
         <v>70</v>
       </c>
@@ -32418,7 +32519,7 @@
       </c>
     </row>
     <row r="26" spans="1:26">
-      <c r="A26" s="74"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="31">
         <v>80</v>
       </c>
@@ -32500,7 +32601,7 @@
       </c>
     </row>
     <row r="27" spans="1:26">
-      <c r="A27" s="74"/>
+      <c r="A27" s="75"/>
       <c r="B27" s="31">
         <v>90</v>
       </c>
@@ -32581,7 +32682,7 @@
       </c>
     </row>
     <row r="28" spans="1:26">
-      <c r="A28" s="74"/>
+      <c r="A28" s="75"/>
       <c r="B28" s="31"/>
       <c r="C28" s="36"/>
       <c r="D28" s="36"/>
@@ -32615,7 +32716,7 @@
       </c>
     </row>
     <row r="29" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A29" s="75"/>
+      <c r="A29" s="76"/>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
       <c r="D29" s="58"/>
@@ -32651,7 +32752,7 @@
       </c>
     </row>
     <row r="30" spans="1:26">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="73" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="42" t="s">
@@ -32707,7 +32808,7 @@
       </c>
     </row>
     <row r="31" spans="1:26">
-      <c r="A31" s="73"/>
+      <c r="A31" s="74"/>
       <c r="B31" s="46"/>
       <c r="C31" s="31" t="s">
         <v>7</v>
@@ -32759,7 +32860,7 @@
       <c r="T31" s="31"/>
     </row>
     <row r="32" spans="1:26">
-      <c r="A32" s="73"/>
+      <c r="A32" s="74"/>
       <c r="B32" s="46" t="s">
         <v>98</v>
       </c>
@@ -32813,7 +32914,7 @@
       <c r="T32" s="31"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="73"/>
+      <c r="A33" s="74"/>
       <c r="B33" s="46" t="s">
         <v>99</v>
       </c>
@@ -32867,7 +32968,7 @@
       <c r="T33" s="31"/>
     </row>
     <row r="34" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A34" s="73"/>
+      <c r="A34" s="74"/>
       <c r="B34" s="48" t="s">
         <v>100</v>
       </c>
@@ -32921,7 +33022,7 @@
       <c r="T34" s="31"/>
     </row>
     <row r="35" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A35" s="74"/>
+      <c r="A35" s="75"/>
       <c r="B35" s="59"/>
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
@@ -32943,7 +33044,7 @@
       <c r="T35" s="31"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="73"/>
+      <c r="A36" s="74"/>
       <c r="B36" s="42"/>
       <c r="C36" s="43" t="s">
         <v>29</v>
@@ -32967,7 +33068,7 @@
       <c r="T36" s="63"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="73"/>
+      <c r="A37" s="74"/>
       <c r="B37" s="46" t="s">
         <v>26</v>
       </c>
@@ -33025,7 +33126,7 @@
       </c>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="73"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="46" t="s">
         <v>28</v>
       </c>
@@ -33079,7 +33180,7 @@
       <c r="T38" s="63"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="73"/>
+      <c r="A39" s="74"/>
       <c r="B39" s="46">
         <v>30</v>
       </c>
@@ -33148,7 +33249,7 @@
       </c>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="73"/>
+      <c r="A40" s="74"/>
       <c r="B40" s="46">
         <v>40</v>
       </c>
@@ -33217,7 +33318,7 @@
       </c>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="73"/>
+      <c r="A41" s="74"/>
       <c r="B41" s="46">
         <v>50</v>
       </c>
@@ -33286,7 +33387,7 @@
       </c>
     </row>
     <row r="42" spans="1:20">
-      <c r="A42" s="73"/>
+      <c r="A42" s="74"/>
       <c r="B42" s="46">
         <v>60</v>
       </c>
@@ -33355,7 +33456,7 @@
       </c>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="73"/>
+      <c r="A43" s="74"/>
       <c r="B43" s="46">
         <v>70</v>
       </c>
@@ -33424,7 +33525,7 @@
       </c>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="73"/>
+      <c r="A44" s="74"/>
       <c r="B44" s="46">
         <v>80</v>
       </c>
@@ -33493,7 +33594,7 @@
       </c>
     </row>
     <row r="45" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A45" s="73"/>
+      <c r="A45" s="74"/>
       <c r="B45" s="48">
         <v>90</v>
       </c>
@@ -33562,7 +33663,7 @@
       </c>
     </row>
     <row r="46" spans="1:20">
-      <c r="A46" s="74"/>
+      <c r="A46" s="75"/>
       <c r="B46" s="52"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
@@ -33584,7 +33685,7 @@
       <c r="T46" s="31"/>
     </row>
     <row r="47" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A47" s="75"/>
+      <c r="A47" s="76"/>
       <c r="B47" s="58"/>
       <c r="C47" s="58"/>
       <c r="D47" s="58"/>
@@ -33608,7 +33709,7 @@
       <c r="T47" s="31"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="73" t="s">
         <v>24</v>
       </c>
       <c r="B48" s="42" t="s">
@@ -33652,7 +33753,7 @@
       <c r="T48" s="31"/>
     </row>
     <row r="49" spans="1:20">
-      <c r="A49" s="73"/>
+      <c r="A49" s="74"/>
       <c r="B49" s="46"/>
       <c r="C49" s="31" t="s">
         <v>7</v>
@@ -33704,7 +33805,7 @@
       <c r="T49" s="31"/>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="73"/>
+      <c r="A50" s="74"/>
       <c r="B50" s="46" t="s">
         <v>98</v>
       </c>
@@ -33758,7 +33859,7 @@
       <c r="T50" s="31"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="73"/>
+      <c r="A51" s="74"/>
       <c r="B51" s="46" t="s">
         <v>99</v>
       </c>
@@ -33812,7 +33913,7 @@
       <c r="T51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A52" s="73"/>
+      <c r="A52" s="74"/>
       <c r="B52" s="48" t="s">
         <v>100</v>
       </c>
@@ -33866,7 +33967,7 @@
       <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A53" s="74"/>
+      <c r="A53" s="75"/>
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
@@ -33888,7 +33989,7 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="73"/>
+      <c r="A54" s="74"/>
       <c r="B54" s="42"/>
       <c r="C54" s="43" t="s">
         <v>29</v>
@@ -33912,7 +34013,7 @@
       <c r="T54" s="63"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="73"/>
+      <c r="A55" s="74"/>
       <c r="B55" s="46" t="s">
         <v>26</v>
       </c>
@@ -33968,7 +34069,7 @@
       </c>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="73"/>
+      <c r="A56" s="74"/>
       <c r="B56" s="46" t="s">
         <v>28</v>
       </c>
@@ -34022,7 +34123,7 @@
       <c r="T56" s="63"/>
     </row>
     <row r="57" spans="1:20">
-      <c r="A57" s="73"/>
+      <c r="A57" s="74"/>
       <c r="B57" s="46">
         <v>30</v>
       </c>
@@ -34091,7 +34192,7 @@
       </c>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="73"/>
+      <c r="A58" s="74"/>
       <c r="B58" s="46">
         <v>40</v>
       </c>
@@ -34160,7 +34261,7 @@
       </c>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="73"/>
+      <c r="A59" s="74"/>
       <c r="B59" s="46">
         <v>50</v>
       </c>
@@ -34229,7 +34330,7 @@
       </c>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="73"/>
+      <c r="A60" s="74"/>
       <c r="B60" s="46">
         <v>60</v>
       </c>
@@ -34298,7 +34399,7 @@
       </c>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="73"/>
+      <c r="A61" s="74"/>
       <c r="B61" s="46">
         <v>70</v>
       </c>
@@ -34367,7 +34468,7 @@
       </c>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="73"/>
+      <c r="A62" s="74"/>
       <c r="B62" s="46">
         <v>80</v>
       </c>
@@ -34436,7 +34537,7 @@
       </c>
     </row>
     <row r="63" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A63" s="73"/>
+      <c r="A63" s="74"/>
       <c r="B63" s="48">
         <v>90</v>
       </c>
@@ -34505,7 +34606,7 @@
       </c>
     </row>
     <row r="64" spans="1:20">
-      <c r="A64" s="74"/>
+      <c r="A64" s="75"/>
       <c r="B64" s="52"/>
       <c r="C64" s="53"/>
       <c r="D64" s="53"/>
@@ -34527,7 +34628,7 @@
       <c r="T64" s="31"/>
     </row>
     <row r="65" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A65" s="75"/>
+      <c r="A65" s="76"/>
       <c r="B65" s="58"/>
       <c r="C65" s="61"/>
       <c r="D65" s="61"/>
@@ -34551,7 +34652,7 @@
       <c r="T65" s="31"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="73" t="s">
         <v>25</v>
       </c>
       <c r="B66" s="42" t="s">
@@ -34595,7 +34696,7 @@
       <c r="T66" s="31"/>
     </row>
     <row r="67" spans="1:20">
-      <c r="A67" s="73"/>
+      <c r="A67" s="74"/>
       <c r="B67" s="46" t="s">
         <v>28</v>
       </c>
@@ -34649,7 +34750,7 @@
       <c r="T67" s="31"/>
     </row>
     <row r="68" spans="1:20">
-      <c r="A68" s="73"/>
+      <c r="A68" s="74"/>
       <c r="B68" s="46" t="s">
         <v>98</v>
       </c>
@@ -34703,7 +34804,7 @@
       <c r="T68" s="31"/>
     </row>
     <row r="69" spans="1:20">
-      <c r="A69" s="73"/>
+      <c r="A69" s="74"/>
       <c r="B69" s="46" t="s">
         <v>99</v>
       </c>
@@ -34757,7 +34858,7 @@
       <c r="T69" s="31"/>
     </row>
     <row r="70" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A70" s="73"/>
+      <c r="A70" s="74"/>
       <c r="B70" s="48" t="s">
         <v>100</v>
       </c>
@@ -34811,7 +34912,7 @@
       <c r="T70" s="31"/>
     </row>
     <row r="71" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A71" s="74"/>
+      <c r="A71" s="75"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -34833,7 +34934,7 @@
       <c r="T71" s="31"/>
     </row>
     <row r="72" spans="1:20">
-      <c r="A72" s="73"/>
+      <c r="A72" s="74"/>
       <c r="B72" s="42"/>
       <c r="C72" s="43" t="s">
         <v>29</v>
@@ -34857,7 +34958,7 @@
       <c r="T72" s="63"/>
     </row>
     <row r="73" spans="1:20">
-      <c r="A73" s="73"/>
+      <c r="A73" s="74"/>
       <c r="B73" s="46" t="s">
         <v>26</v>
       </c>
@@ -34915,7 +35016,7 @@
       </c>
     </row>
     <row r="74" spans="1:20">
-      <c r="A74" s="73"/>
+      <c r="A74" s="74"/>
       <c r="B74" s="46"/>
       <c r="C74" s="34" t="s">
         <v>7</v>
@@ -34967,7 +35068,7 @@
       <c r="T74" s="63"/>
     </row>
     <row r="75" spans="1:20">
-      <c r="A75" s="73"/>
+      <c r="A75" s="74"/>
       <c r="B75" s="46">
         <v>30</v>
       </c>
@@ -35036,7 +35137,7 @@
       </c>
     </row>
     <row r="76" spans="1:20">
-      <c r="A76" s="73"/>
+      <c r="A76" s="74"/>
       <c r="B76" s="46">
         <v>40</v>
       </c>
@@ -35105,7 +35206,7 @@
       </c>
     </row>
     <row r="77" spans="1:20">
-      <c r="A77" s="73"/>
+      <c r="A77" s="74"/>
       <c r="B77" s="46">
         <v>50</v>
       </c>
@@ -35174,7 +35275,7 @@
       </c>
     </row>
     <row r="78" spans="1:20">
-      <c r="A78" s="73"/>
+      <c r="A78" s="74"/>
       <c r="B78" s="46">
         <v>60</v>
       </c>
@@ -35243,7 +35344,7 @@
       </c>
     </row>
     <row r="79" spans="1:20">
-      <c r="A79" s="73"/>
+      <c r="A79" s="74"/>
       <c r="B79" s="46">
         <v>70</v>
       </c>
@@ -35312,7 +35413,7 @@
       </c>
     </row>
     <row r="80" spans="1:20">
-      <c r="A80" s="73"/>
+      <c r="A80" s="74"/>
       <c r="B80" s="46">
         <v>80</v>
       </c>
@@ -35381,7 +35482,7 @@
       </c>
     </row>
     <row r="81" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A81" s="76"/>
+      <c r="A81" s="77"/>
       <c r="B81" s="48">
         <v>90</v>
       </c>
@@ -40038,7 +40139,7 @@
   </sheetPr>
   <dimension ref="A2:AJ63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B7" sqref="B7:B15"/>
     </sheetView>
@@ -41741,10 +41842,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BED358-4F22-4D08-80C7-0FD3ED442E0D}">
-  <dimension ref="A1:U27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -41754,25 +41855,25 @@
     <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.875" customWidth="1"/>
+    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" customWidth="1"/>
+    <col min="15" max="15" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="C1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="B2" t="s">
         <v>118</v>
       </c>
@@ -41792,44 +41893,47 @@
         <v>119</v>
       </c>
       <c r="H2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>123</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>120</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>121</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>122</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>119</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>118</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>123</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>120</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>121</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>122</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>119</v>
       </c>
-      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -41851,44 +41955,47 @@
       <c r="G3" s="11">
         <v>13.007162520711994</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
+        <v>13.08</v>
+      </c>
+      <c r="I3">
         <v>30</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>13</v>
       </c>
-      <c r="J3" s="11">
+      <c r="K3" s="11">
         <v>33.338523479999999</v>
       </c>
-      <c r="K3" s="11">
+      <c r="L3" s="11">
         <v>28.119035409999999</v>
       </c>
-      <c r="L3" s="11">
+      <c r="M3" s="11">
         <v>24.191248160000001</v>
       </c>
-      <c r="M3" s="11">
+      <c r="N3" s="11">
         <v>13.214732823172795</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>30</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>12</v>
       </c>
-      <c r="P3" s="11">
+      <c r="Q3" s="11">
         <v>25.264198820000001</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="R3" s="11">
         <v>25.5135687</v>
       </c>
-      <c r="R3" s="11">
+      <c r="S3" s="11">
         <v>20.61857354</v>
       </c>
-      <c r="S3" s="11">
+      <c r="T3" s="11">
         <v>12.102745020662223</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="B4" s="1">
         <v>40</v>
       </c>
@@ -41907,44 +42014,47 @@
       <c r="G4" s="11">
         <v>81.590445347591285</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="11">
+        <v>82.16</v>
+      </c>
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>84</v>
       </c>
-      <c r="J4" s="11">
+      <c r="K4" s="11">
         <v>82.727739819999996</v>
       </c>
-      <c r="K4" s="11">
+      <c r="L4" s="11">
         <v>55.769786770000003</v>
       </c>
-      <c r="L4" s="11">
+      <c r="M4" s="11">
         <v>94.087317139999996</v>
       </c>
-      <c r="M4" s="11">
+      <c r="N4" s="11">
         <v>89.863194103368727</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>40</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>78</v>
       </c>
-      <c r="P4" s="11">
+      <c r="Q4" s="11">
         <v>85.232599219999997</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="R4" s="11">
         <v>54.870970960000001</v>
       </c>
-      <c r="R4" s="11">
+      <c r="S4" s="11">
         <v>88.997154069999993</v>
       </c>
-      <c r="S4" s="11">
+      <c r="T4" s="11">
         <v>90.636879030622254</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="B5" s="1">
         <v>50</v>
       </c>
@@ -41963,44 +42073,47 @@
       <c r="G5" s="11">
         <v>186.95291550596573</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="11">
+        <v>189.81</v>
+      </c>
+      <c r="I5">
         <v>50</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>190</v>
       </c>
-      <c r="J5" s="11">
+      <c r="K5" s="11">
         <v>165.26567334000001</v>
       </c>
-      <c r="K5" s="11">
+      <c r="L5" s="11">
         <v>218.6033573</v>
       </c>
-      <c r="L5" s="11">
+      <c r="M5" s="11">
         <v>236.23881220000001</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11">
         <v>192.95536676174336</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>50</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>193</v>
       </c>
-      <c r="P5" s="11">
+      <c r="Q5" s="11">
         <v>180.95989023999999</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="R5" s="11">
         <v>217.35978938</v>
       </c>
-      <c r="R5" s="11">
+      <c r="S5" s="11">
         <v>220.87468355999999</v>
       </c>
-      <c r="S5" s="11">
+      <c r="T5" s="11">
         <v>196.56830613501259</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="B6" s="1">
         <v>60</v>
       </c>
@@ -42019,44 +42132,47 @@
       <c r="G6" s="11">
         <v>271.42755941885719</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="11">
+        <v>294.98</v>
+      </c>
+      <c r="I6">
         <v>60</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>268</v>
       </c>
-      <c r="J6" s="11">
+      <c r="K6" s="11">
         <v>227.22611599000001</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>306.68777448999998</v>
       </c>
-      <c r="L6" s="11">
+      <c r="M6" s="11">
         <v>342.17814292000003</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11">
         <v>281.96423647740517</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>60</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>303</v>
       </c>
-      <c r="P6" s="11">
+      <c r="Q6" s="11">
         <v>240.84338101</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="R6" s="11">
         <v>308.46793732999998</v>
       </c>
-      <c r="R6" s="11">
+      <c r="S6" s="11">
         <v>325.44550973999998</v>
       </c>
-      <c r="S6" s="11">
+      <c r="T6" s="11">
         <v>282.5029258802889</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="B7" s="1">
         <v>70</v>
       </c>
@@ -42075,44 +42191,47 @@
       <c r="G7" s="11">
         <v>225.82912662316653</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="11">
+        <v>228.96</v>
+      </c>
+      <c r="I7">
         <v>70</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>242</v>
       </c>
-      <c r="J7" s="11">
+      <c r="K7" s="11">
         <v>266.83843399</v>
       </c>
-      <c r="K7" s="11">
+      <c r="L7" s="11">
         <v>285.99813101000001</v>
       </c>
-      <c r="L7" s="11">
+      <c r="M7" s="11">
         <v>315.00050212999997</v>
       </c>
-      <c r="M7" s="11">
+      <c r="N7" s="11">
         <v>237.16882360299746</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>70</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>221</v>
       </c>
-      <c r="P7" s="11">
+      <c r="Q7" s="11">
         <v>253.12515571</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="R7" s="11">
         <v>273.44144102000001</v>
       </c>
-      <c r="R7" s="11">
+      <c r="S7" s="11">
         <v>286.66308058999999</v>
       </c>
-      <c r="S7" s="11">
+      <c r="T7" s="11">
         <v>230.71025672789636</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="B8" s="1">
         <v>80</v>
       </c>
@@ -42131,44 +42250,47 @@
       <c r="G8" s="11">
         <v>88.379533240827669</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="11">
+        <v>91.35</v>
+      </c>
+      <c r="I8">
         <v>80</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>91</v>
       </c>
-      <c r="J8" s="11">
+      <c r="K8" s="11">
         <v>92.457429829999995</v>
       </c>
-      <c r="K8" s="11">
+      <c r="L8" s="11">
         <v>80.209642349999996</v>
       </c>
-      <c r="L8" s="11">
+      <c r="M8" s="11">
         <v>105.43950172</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11">
         <v>90.992042949670065</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>80</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>95</v>
       </c>
-      <c r="P8" s="11">
+      <c r="Q8" s="11">
         <v>96.846358359999996</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="R8" s="11">
         <v>77.977080430000001</v>
       </c>
-      <c r="R8" s="11">
+      <c r="S8" s="11">
         <v>97.426679570000005</v>
       </c>
-      <c r="S8" s="11">
+      <c r="T8" s="11">
         <v>92.583800887001388</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="B9" s="1">
         <v>90</v>
       </c>
@@ -42187,44 +42309,47 @@
       <c r="G9" s="11">
         <v>30.523911049639075</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="11">
+        <v>34.24</v>
+      </c>
+      <c r="I9">
         <v>90</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>33</v>
       </c>
-      <c r="J9" s="11">
+      <c r="K9" s="11">
         <v>14.602917010000001</v>
       </c>
-      <c r="K9" s="11">
+      <c r="L9" s="11">
         <v>31.634723810000001</v>
       </c>
-      <c r="L9" s="11">
+      <c r="M9" s="11">
         <v>32.150881159999997</v>
       </c>
-      <c r="M9" s="11">
+      <c r="N9" s="11">
         <v>30.619950710758271</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>90</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>32</v>
       </c>
-      <c r="P9" s="11">
+      <c r="Q9" s="11">
         <v>20.961411129999998</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="R9" s="11">
         <v>33.984960409999999</v>
       </c>
-      <c r="R9" s="11">
+      <c r="S9" s="11">
         <v>32.237248600000001</v>
       </c>
-      <c r="S9" s="11">
+      <c r="T9" s="11">
         <v>31.660027234743726</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -42247,46 +42372,49 @@
         <f t="shared" si="0"/>
         <v>1.0071625207119936</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="11">
+        <v>1.08</v>
+      </c>
+      <c r="I11" s="1">
         <v>30</v>
       </c>
-      <c r="J11" s="11">
-        <f>ABS($I3-J3)</f>
+      <c r="K11" s="11">
+        <f>ABS($J3-K3)</f>
         <v>20.338523479999999</v>
       </c>
-      <c r="K11" s="11">
-        <f t="shared" ref="K11:M11" si="1">ABS($I3-K3)</f>
+      <c r="L11" s="11">
+        <f t="shared" ref="L11:N11" si="1">ABS($J3-L3)</f>
         <v>15.119035409999999</v>
       </c>
-      <c r="L11" s="11">
+      <c r="M11" s="11">
         <f t="shared" si="1"/>
         <v>11.191248160000001</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <f t="shared" si="1"/>
         <v>0.21473282317279541</v>
       </c>
-      <c r="N11" s="1">
+      <c r="O11" s="1">
         <v>30</v>
       </c>
-      <c r="P11" s="11">
-        <f>ABS($O3-P3)</f>
+      <c r="Q11" s="11">
+        <f>ABS($P3-Q3)</f>
         <v>13.264198820000001</v>
       </c>
-      <c r="Q11" s="11">
-        <f t="shared" ref="Q11:S11" si="2">ABS($O3-Q3)</f>
+      <c r="R11" s="11">
+        <f t="shared" ref="R11:T11" si="2">ABS($P3-R3)</f>
         <v>13.5135687</v>
       </c>
-      <c r="R11" s="11">
+      <c r="S11" s="11">
         <f t="shared" si="2"/>
         <v>8.6185735399999999</v>
       </c>
-      <c r="S11" s="11">
+      <c r="T11" s="11">
         <f t="shared" si="2"/>
         <v>0.10274502066222269</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="B12" s="1">
         <v>40</v>
       </c>
@@ -42306,46 +42434,49 @@
         <f t="shared" si="3"/>
         <v>2.5904453475912845</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="11">
+        <v>3.16</v>
+      </c>
+      <c r="I12" s="1">
         <v>40</v>
       </c>
-      <c r="J12" s="11">
-        <f t="shared" ref="J12:M12" si="4">ABS($I4-J4)</f>
+      <c r="K12" s="11">
+        <f t="shared" ref="K12:N12" si="4">ABS($J4-K4)</f>
         <v>1.2722601800000035</v>
       </c>
-      <c r="K12" s="11">
+      <c r="L12" s="11">
         <f t="shared" si="4"/>
         <v>28.230213229999997</v>
       </c>
-      <c r="L12" s="11">
+      <c r="M12" s="11">
         <f t="shared" si="4"/>
         <v>10.087317139999996</v>
       </c>
-      <c r="M12" s="11">
+      <c r="N12" s="11">
         <f t="shared" si="4"/>
         <v>5.8631941033687269</v>
       </c>
-      <c r="N12" s="1">
+      <c r="O12" s="1">
         <v>40</v>
       </c>
-      <c r="P12" s="11">
-        <f t="shared" ref="P12:S12" si="5">ABS($O4-P4)</f>
+      <c r="Q12" s="11">
+        <f t="shared" ref="Q12:T12" si="5">ABS($P4-Q4)</f>
         <v>7.2325992199999973</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="R12" s="11">
         <f t="shared" si="5"/>
         <v>23.129029039999999</v>
       </c>
-      <c r="R12" s="11">
-        <f>ABS($O4-R4)</f>
+      <c r="S12" s="11">
+        <f>ABS($P4-S4)</f>
         <v>10.997154069999993</v>
       </c>
-      <c r="S12" s="11">
+      <c r="T12" s="11">
         <f t="shared" si="5"/>
         <v>12.636879030622254</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="B13" s="1">
         <v>50</v>
       </c>
@@ -42365,46 +42496,49 @@
         <f t="shared" si="6"/>
         <v>15.952915505965734</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="11">
+        <v>18.809999999999999</v>
+      </c>
+      <c r="I13" s="1">
         <v>50</v>
       </c>
-      <c r="J13" s="11">
-        <f t="shared" ref="J13:M13" si="7">ABS($I5-J5)</f>
+      <c r="K13" s="11">
+        <f t="shared" ref="K13:N13" si="7">ABS($J5-K5)</f>
         <v>24.734326659999994</v>
       </c>
-      <c r="K13" s="11">
+      <c r="L13" s="11">
         <f t="shared" si="7"/>
         <v>28.603357299999999</v>
       </c>
-      <c r="L13" s="11">
+      <c r="M13" s="11">
         <f t="shared" si="7"/>
         <v>46.238812200000012</v>
       </c>
-      <c r="M13" s="11">
+      <c r="N13" s="11">
         <f t="shared" si="7"/>
         <v>2.9553667617433632</v>
       </c>
-      <c r="N13" s="1">
+      <c r="O13" s="1">
         <v>50</v>
       </c>
-      <c r="P13" s="11">
-        <f t="shared" ref="P13:S13" si="8">ABS($O5-P5)</f>
+      <c r="Q13" s="11">
+        <f t="shared" ref="Q13:T13" si="8">ABS($P5-Q5)</f>
         <v>12.040109760000007</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="R13" s="11">
         <f t="shared" si="8"/>
         <v>24.359789379999995</v>
       </c>
-      <c r="R13" s="11">
+      <c r="S13" s="11">
         <f t="shared" si="8"/>
         <v>27.874683559999994</v>
       </c>
-      <c r="S13" s="11">
+      <c r="T13" s="11">
         <f t="shared" si="8"/>
         <v>3.5683061350125911</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="B14" s="1">
         <v>60</v>
       </c>
@@ -42424,46 +42558,49 @@
         <f t="shared" si="9"/>
         <v>29.572440581142814</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="11">
+        <v>6.0200000000000005</v>
+      </c>
+      <c r="I14" s="1">
         <v>60</v>
       </c>
-      <c r="J14" s="11">
-        <f t="shared" ref="J14:M14" si="10">ABS($I6-J6)</f>
+      <c r="K14" s="11">
+        <f t="shared" ref="K14:N14" si="10">ABS($J6-K6)</f>
         <v>40.773884009999989</v>
       </c>
-      <c r="K14" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="10"/>
         <v>38.687774489999981</v>
       </c>
-      <c r="L14" s="11">
+      <c r="M14" s="11">
         <f t="shared" si="10"/>
         <v>74.178142920000028</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <f t="shared" si="10"/>
         <v>13.964236477405166</v>
       </c>
-      <c r="N14" s="1">
+      <c r="O14" s="1">
         <v>60</v>
       </c>
-      <c r="P14" s="11">
-        <f t="shared" ref="P14:S14" si="11">ABS($O6-P6)</f>
+      <c r="Q14" s="11">
+        <f t="shared" ref="Q14:T14" si="11">ABS($P6-Q6)</f>
         <v>62.156618989999998</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="R14" s="11">
         <f t="shared" si="11"/>
         <v>5.4679373299999838</v>
       </c>
-      <c r="R14" s="11">
+      <c r="S14" s="11">
         <f t="shared" si="11"/>
         <v>22.445509739999977</v>
       </c>
-      <c r="S14" s="11">
+      <c r="T14" s="11">
         <f t="shared" si="11"/>
         <v>20.497074119711101</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="B15" s="1">
         <v>70</v>
       </c>
@@ -42483,46 +42620,49 @@
         <f t="shared" si="12"/>
         <v>13.82912662316653</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="11">
+        <v>16.96</v>
+      </c>
+      <c r="I15" s="1">
         <v>70</v>
       </c>
-      <c r="J15" s="11">
-        <f t="shared" ref="J15:M15" si="13">ABS($I7-J7)</f>
+      <c r="K15" s="11">
+        <f t="shared" ref="K15:N15" si="13">ABS($J7-K7)</f>
         <v>24.838433989999999</v>
       </c>
-      <c r="K15" s="11">
+      <c r="L15" s="11">
         <f t="shared" si="13"/>
         <v>43.998131010000009</v>
       </c>
-      <c r="L15" s="11">
+      <c r="M15" s="11">
         <f t="shared" si="13"/>
         <v>73.000502129999973</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <f t="shared" si="13"/>
         <v>4.8311763970025368</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O15" s="1">
         <v>70</v>
       </c>
-      <c r="P15" s="11">
-        <f t="shared" ref="P15:S15" si="14">ABS($O7-P7)</f>
+      <c r="Q15" s="11">
+        <f t="shared" ref="Q15:T15" si="14">ABS($P7-Q7)</f>
         <v>32.125155710000001</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="R15" s="11">
         <f t="shared" si="14"/>
         <v>52.441441020000013</v>
       </c>
-      <c r="R15" s="11">
+      <c r="S15" s="11">
         <f t="shared" si="14"/>
         <v>65.663080589999993</v>
       </c>
-      <c r="S15" s="11">
+      <c r="T15" s="11">
         <f t="shared" si="14"/>
         <v>9.7102567278963647</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="B16" s="1">
         <v>80</v>
       </c>
@@ -42542,46 +42682,49 @@
         <f t="shared" si="15"/>
         <v>1.3795332408276693</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="11">
+        <v>4.3500000000000005</v>
+      </c>
+      <c r="I16" s="1">
         <v>80</v>
       </c>
-      <c r="J16" s="11">
-        <f t="shared" ref="J16:M16" si="16">ABS($I8-J8)</f>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16:N16" si="16">ABS($J8-K8)</f>
         <v>1.4574298299999953</v>
       </c>
-      <c r="K16" s="11">
+      <c r="L16" s="11">
         <f t="shared" si="16"/>
         <v>10.790357650000004</v>
       </c>
-      <c r="L16" s="11">
+      <c r="M16" s="11">
         <f t="shared" si="16"/>
         <v>14.439501719999996</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="16"/>
         <v>7.9570503299351003E-3</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>80</v>
       </c>
-      <c r="P16" s="11">
-        <f t="shared" ref="P16:S16" si="17">ABS($O8-P8)</f>
+      <c r="Q16" s="11">
+        <f t="shared" ref="Q16:T16" si="17">ABS($P8-Q8)</f>
         <v>1.8463583599999964</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="R16" s="11">
         <f t="shared" si="17"/>
         <v>17.022919569999999</v>
       </c>
-      <c r="R16" s="11">
+      <c r="S16" s="11">
         <f t="shared" si="17"/>
         <v>2.4266795700000046</v>
       </c>
-      <c r="S16" s="11">
+      <c r="T16" s="11">
         <f t="shared" si="17"/>
         <v>2.416199112998612</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:20">
       <c r="B17" s="1">
         <v>90</v>
       </c>
@@ -42601,531 +42744,545 @@
         <f t="shared" si="18"/>
         <v>1.4760889503609249</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="11">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I17" s="1">
         <v>90</v>
       </c>
-      <c r="J17" s="11">
-        <f t="shared" ref="J17:M17" si="19">ABS($I9-J9)</f>
+      <c r="K17" s="11">
+        <f t="shared" ref="K17:N17" si="19">ABS($J9-K9)</f>
         <v>18.397082990000001</v>
       </c>
-      <c r="K17" s="11">
+      <c r="L17" s="11">
         <f t="shared" si="19"/>
         <v>1.3652761899999994</v>
       </c>
-      <c r="L17" s="11">
+      <c r="M17" s="11">
         <f t="shared" si="19"/>
         <v>0.84911884000000271</v>
       </c>
-      <c r="M17" s="11">
+      <c r="N17" s="11">
         <f t="shared" si="19"/>
         <v>2.3800492892417289</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>90</v>
       </c>
-      <c r="P17" s="11">
-        <f t="shared" ref="P17:S17" si="20">ABS($O9-P9)</f>
+      <c r="Q17" s="11">
+        <f t="shared" ref="Q17:T17" si="20">ABS($P9-Q9)</f>
         <v>11.038588870000002</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="R17" s="11">
         <f t="shared" si="20"/>
         <v>1.9849604099999993</v>
       </c>
-      <c r="R17" s="11">
+      <c r="S17" s="11">
         <f t="shared" si="20"/>
         <v>0.23724860000000092</v>
       </c>
-      <c r="S17" s="11">
+      <c r="T17" s="11">
         <f t="shared" si="20"/>
         <v>0.33997276525627385</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>116</v>
       </c>
       <c r="B19" s="1">
         <v>30</v>
       </c>
-      <c r="C19" s="1">
-        <v>30</v>
-      </c>
-      <c r="D19" s="77">
+      <c r="C19" s="1"/>
+      <c r="D19" s="72">
         <f>D11/$C3</f>
         <v>1.6295415391666666</v>
       </c>
-      <c r="E19" s="77">
+      <c r="E19" s="72">
         <f t="shared" ref="E19:G19" si="21">E11/$C3</f>
         <v>2.0689701591666663</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="72">
         <f t="shared" si="21"/>
         <v>1.201610125</v>
       </c>
-      <c r="G19" s="77">
+      <c r="G19" s="72">
         <f t="shared" si="21"/>
         <v>8.3930210059332808E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="72">
+        <v>0.09</v>
+      </c>
+      <c r="I19" s="1">
         <v>30</v>
       </c>
-      <c r="J19" s="77">
-        <f>J11/$I3</f>
+      <c r="K19" s="72">
+        <f>K11/$J3</f>
         <v>1.564501806153846</v>
       </c>
-      <c r="K19" s="77">
-        <f t="shared" ref="K19:M19" si="22">K11/$I3</f>
+      <c r="L19" s="72">
+        <f t="shared" ref="L19:N19" si="22">L11/$J3</f>
         <v>1.1630027238461538</v>
       </c>
-      <c r="L19" s="77">
+      <c r="M19" s="72">
         <f t="shared" si="22"/>
         <v>0.86086524307692314</v>
       </c>
-      <c r="M19" s="77">
+      <c r="N19" s="72">
         <f t="shared" si="22"/>
         <v>1.6517909474830415E-2</v>
       </c>
-      <c r="N19" s="1">
+      <c r="O19" s="1">
         <v>30</v>
       </c>
-      <c r="P19" s="77">
-        <f>P11/$O3</f>
+      <c r="Q19" s="72">
+        <f>Q11/$P3</f>
         <v>1.1053499016666668</v>
       </c>
-      <c r="Q19" s="77">
-        <f t="shared" ref="Q19:S19" si="23">Q11/$O3</f>
+      <c r="R19" s="72">
+        <f t="shared" ref="R19:T19" si="23">R11/$P3</f>
         <v>1.1261307250000001</v>
       </c>
-      <c r="R19" s="77">
+      <c r="S19" s="72">
         <f t="shared" si="23"/>
         <v>0.71821446166666669</v>
       </c>
-      <c r="S19" s="77">
+      <c r="T19" s="72">
         <f t="shared" si="23"/>
         <v>8.5620850551852232E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:20">
       <c r="B20" s="1">
         <v>40</v>
       </c>
-      <c r="C20" s="1">
-        <v>40</v>
-      </c>
-      <c r="D20" s="77">
+      <c r="C20" s="1"/>
+      <c r="D20" s="72">
         <f t="shared" ref="D20:G20" si="24">D12/$C4</f>
         <v>3.279700354430376E-2</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="72">
         <f t="shared" si="24"/>
         <v>0.71825871240506334</v>
       </c>
-      <c r="F20" s="77">
+      <c r="F20" s="72">
         <f t="shared" si="24"/>
         <v>0.14208938240506339</v>
       </c>
-      <c r="G20" s="77">
+      <c r="G20" s="72">
         <f t="shared" si="24"/>
         <v>3.2790447437864363E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="72">
+        <v>0.04</v>
+      </c>
+      <c r="I20" s="1">
         <v>40</v>
       </c>
-      <c r="J20" s="77">
-        <f t="shared" ref="J20:M20" si="25">J12/$I4</f>
+      <c r="K20" s="72">
+        <f t="shared" ref="K20:N20" si="25">K12/$J4</f>
         <v>1.5145954523809565E-2</v>
       </c>
-      <c r="K20" s="77">
+      <c r="L20" s="72">
         <f t="shared" si="25"/>
         <v>0.33607396702380948</v>
       </c>
-      <c r="L20" s="77">
+      <c r="M20" s="72">
         <f t="shared" si="25"/>
         <v>0.12008710880952377</v>
       </c>
-      <c r="M20" s="77">
+      <c r="N20" s="72">
         <f t="shared" si="25"/>
         <v>6.9799929802008651E-2</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>40</v>
       </c>
-      <c r="P20" s="77">
-        <f t="shared" ref="P20:S20" si="26">P12/$O4</f>
+      <c r="Q20" s="72">
+        <f t="shared" ref="Q20:T20" si="26">Q12/$P4</f>
         <v>9.2725631025640992E-2</v>
       </c>
-      <c r="Q20" s="77">
+      <c r="R20" s="72">
         <f t="shared" si="26"/>
         <v>0.29652601333333334</v>
       </c>
-      <c r="R20" s="77">
+      <c r="S20" s="72">
         <f t="shared" si="26"/>
         <v>0.14098915474358967</v>
       </c>
-      <c r="S20" s="77">
+      <c r="T20" s="72">
         <f t="shared" si="26"/>
         <v>0.16201126962336224</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:20">
       <c r="B21" s="1">
         <v>50</v>
       </c>
-      <c r="C21" s="1">
-        <v>50</v>
-      </c>
-      <c r="D21" s="77">
+      <c r="C21" s="1"/>
+      <c r="D21" s="72">
         <f t="shared" ref="D21:G21" si="27">D13/$C5</f>
         <v>4.4732442280701702E-2</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="72">
         <f t="shared" si="27"/>
         <v>0.39827975906432739</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="72">
         <f t="shared" si="27"/>
         <v>0.36915307502923972</v>
       </c>
-      <c r="G21" s="77">
+      <c r="G21" s="72">
         <f t="shared" si="27"/>
         <v>9.3291903543659266E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="72">
+        <v>0.11</v>
+      </c>
+      <c r="I21" s="1">
         <v>50</v>
       </c>
-      <c r="J21" s="77">
-        <f t="shared" ref="J21:M21" si="28">J13/$I5</f>
+      <c r="K21" s="72">
+        <f t="shared" ref="K21:N21" si="28">K13/$J5</f>
         <v>0.1301806666315789</v>
       </c>
-      <c r="K21" s="77">
+      <c r="L21" s="72">
         <f t="shared" si="28"/>
         <v>0.15054398578947367</v>
       </c>
-      <c r="L21" s="77">
+      <c r="M21" s="72">
         <f t="shared" si="28"/>
         <v>0.24336216947368428</v>
       </c>
-      <c r="M21" s="77">
+      <c r="N21" s="72">
         <f t="shared" si="28"/>
         <v>1.5554561903912438E-2</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>50</v>
       </c>
-      <c r="P21" s="77">
-        <f t="shared" ref="P21:S21" si="29">P13/$O5</f>
+      <c r="Q21" s="72">
+        <f t="shared" ref="Q21:T21" si="29">Q13/$P5</f>
         <v>6.2383988393782418E-2</v>
       </c>
-      <c r="Q21" s="77">
+      <c r="R21" s="72">
         <f t="shared" si="29"/>
         <v>0.12621652528497407</v>
       </c>
-      <c r="R21" s="77">
+      <c r="S21" s="72">
         <f t="shared" si="29"/>
         <v>0.14442841222797925</v>
       </c>
-      <c r="S21" s="77">
+      <c r="T21" s="72">
         <f t="shared" si="29"/>
         <v>1.8488632823899436E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:20">
       <c r="B22" s="1">
         <v>60</v>
       </c>
-      <c r="C22" s="1">
-        <v>60</v>
-      </c>
-      <c r="D22" s="77">
+      <c r="C22" s="1"/>
+      <c r="D22" s="72">
         <f t="shared" ref="D22:G22" si="30">D14/$C6</f>
         <v>0.25522812225913616</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="72">
         <f t="shared" si="30"/>
         <v>1.1786027076411991E-2</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="72">
         <f t="shared" si="30"/>
         <v>3.9142539468438584E-2</v>
       </c>
-      <c r="G22" s="77">
+      <c r="G22" s="72">
         <f t="shared" si="30"/>
         <v>9.8247310900806697E-2</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="72">
+        <v>0.02</v>
+      </c>
+      <c r="I22" s="1">
         <v>60</v>
       </c>
-      <c r="J22" s="77">
-        <f t="shared" ref="J22:M22" si="31">J14/$I6</f>
+      <c r="K22" s="72">
+        <f t="shared" ref="K22:N22" si="31">K14/$J6</f>
         <v>0.15214135824626862</v>
       </c>
-      <c r="K22" s="77">
+      <c r="L22" s="72">
         <f t="shared" si="31"/>
         <v>0.14435736749999992</v>
       </c>
-      <c r="L22" s="77">
+      <c r="M22" s="72">
         <f t="shared" si="31"/>
         <v>0.27678411537313441</v>
       </c>
-      <c r="M22" s="77">
+      <c r="N22" s="72">
         <f t="shared" si="31"/>
         <v>5.2105359990317783E-2</v>
       </c>
-      <c r="N22" s="1">
+      <c r="O22" s="1">
         <v>60</v>
       </c>
-      <c r="P22" s="77">
-        <f t="shared" ref="P22:S22" si="32">P14/$O6</f>
+      <c r="Q22" s="72">
+        <f t="shared" ref="Q22:T22" si="32">Q14/$P6</f>
         <v>0.20513735640264025</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="R22" s="72">
         <f t="shared" si="32"/>
         <v>1.8045997788778825E-2</v>
       </c>
-      <c r="R22" s="77">
+      <c r="S22" s="72">
         <f t="shared" si="32"/>
         <v>7.4077589900990018E-2</v>
       </c>
-      <c r="S22" s="77">
+      <c r="T22" s="72">
         <f t="shared" si="32"/>
         <v>6.7647109305977227E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:20">
       <c r="B23" s="1">
         <v>70</v>
       </c>
-      <c r="C23" s="1">
-        <v>70</v>
-      </c>
-      <c r="D23" s="77">
+      <c r="C23" s="1"/>
+      <c r="D23" s="72">
         <f t="shared" ref="D23:G23" si="33">D15/$C7</f>
         <v>0.18368065768867931</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="72">
         <f t="shared" si="33"/>
         <v>0.32955013363207553</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="72">
         <f t="shared" si="33"/>
         <v>0.39233399726415086</v>
       </c>
-      <c r="G23" s="77">
+      <c r="G23" s="72">
         <f t="shared" si="33"/>
         <v>6.5231729354559106E-2</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="72">
+        <v>0.08</v>
+      </c>
+      <c r="I23" s="1">
         <v>70</v>
       </c>
-      <c r="J23" s="77">
-        <f t="shared" ref="J23:M23" si="34">J15/$I7</f>
+      <c r="K23" s="72">
+        <f t="shared" ref="K23:N23" si="34">K15/$J7</f>
         <v>0.10263815698347106</v>
       </c>
-      <c r="K23" s="77">
+      <c r="L23" s="72">
         <f t="shared" si="34"/>
         <v>0.18181045871900831</v>
       </c>
-      <c r="L23" s="77">
+      <c r="M23" s="72">
         <f t="shared" si="34"/>
         <v>0.30165496747933873</v>
       </c>
-      <c r="M23" s="77">
+      <c r="N23" s="72">
         <f t="shared" si="34"/>
         <v>1.9963538830588996E-2</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>70</v>
       </c>
-      <c r="P23" s="77">
-        <f t="shared" ref="P23:S23" si="35">P15/$O7</f>
+      <c r="Q23" s="72">
+        <f t="shared" ref="Q23:T23" si="35">Q15/$P7</f>
         <v>0.14536269552036199</v>
       </c>
-      <c r="Q23" s="77">
+      <c r="R23" s="72">
         <f t="shared" si="35"/>
         <v>0.23729158832579192</v>
       </c>
-      <c r="R23" s="77">
+      <c r="S23" s="72">
         <f t="shared" si="35"/>
         <v>0.29711801171945695</v>
       </c>
-      <c r="S23" s="77">
+      <c r="T23" s="72">
         <f t="shared" si="35"/>
         <v>4.3937813248399842E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:20">
       <c r="B24" s="1">
         <v>80</v>
       </c>
-      <c r="C24" s="1">
-        <v>80</v>
-      </c>
-      <c r="D24" s="77">
+      <c r="C24" s="1"/>
+      <c r="D24" s="72">
         <f t="shared" ref="D24:G24" si="36">D16/$C8</f>
         <v>1.8312097586206829E-2</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="72">
         <f t="shared" si="36"/>
         <v>0.25604580034482755</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="72">
         <f t="shared" si="36"/>
         <v>0.16005766252873557</v>
       </c>
-      <c r="G24" s="77">
+      <c r="G24" s="72">
         <f t="shared" si="36"/>
         <v>1.5856703917559417E-2</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="72">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="1">
         <v>80</v>
       </c>
-      <c r="J24" s="77">
-        <f t="shared" ref="J24:M24" si="37">J16/$I8</f>
+      <c r="K24" s="72">
+        <f t="shared" ref="K24:N24" si="37">K16/$J8</f>
         <v>1.6015712417582366E-2</v>
       </c>
-      <c r="K24" s="77">
+      <c r="L24" s="72">
         <f t="shared" si="37"/>
         <v>0.11857535879120884</v>
       </c>
-      <c r="L24" s="77">
+      <c r="M24" s="72">
         <f t="shared" si="37"/>
         <v>0.15867584307692303</v>
       </c>
-      <c r="M24" s="77">
+      <c r="N24" s="72">
         <f t="shared" si="37"/>
         <v>8.7440113515770327E-5</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>80</v>
       </c>
-      <c r="P24" s="77">
-        <f t="shared" ref="P24:S24" si="38">P16/$O8</f>
+      <c r="Q24" s="72">
+        <f t="shared" ref="Q24:T24" si="38">Q16/$P8</f>
         <v>1.9435351157894701E-2</v>
       </c>
-      <c r="Q24" s="77">
+      <c r="R24" s="72">
         <f t="shared" si="38"/>
         <v>0.17918862705263158</v>
       </c>
-      <c r="R24" s="77">
+      <c r="S24" s="72">
         <f t="shared" si="38"/>
         <v>2.5543995473684258E-2</v>
       </c>
-      <c r="S24" s="77">
+      <c r="T24" s="72">
         <f t="shared" si="38"/>
         <v>2.5433674873669602E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:20">
       <c r="B25" s="1">
         <v>90</v>
       </c>
-      <c r="C25" s="1">
-        <v>90</v>
-      </c>
-      <c r="D25" s="77">
+      <c r="C25" s="1"/>
+      <c r="D25" s="72">
         <f>D17/$C9</f>
         <v>0.49172269156250004</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="72">
         <f>E17/$C9</f>
         <v>0.14052981093749994</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="72">
         <f>F17/$C9</f>
         <v>3.7762061874999975E-2</v>
       </c>
-      <c r="G25" s="77">
+      <c r="G25" s="72">
         <f t="shared" ref="G25" si="39">G17/$C9</f>
         <v>4.6127779698778903E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="72">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I25" s="1">
         <v>90</v>
       </c>
-      <c r="J25" s="77">
-        <f t="shared" ref="J25:M25" si="40">J17/$I9</f>
+      <c r="K25" s="72">
+        <f t="shared" ref="K25:N25" si="40">K17/$J9</f>
         <v>0.55748736333333337</v>
       </c>
-      <c r="K25" s="77">
+      <c r="L25" s="72">
         <f t="shared" si="40"/>
         <v>4.1372005757575742E-2</v>
       </c>
-      <c r="L25" s="77">
+      <c r="M25" s="72">
         <f t="shared" si="40"/>
         <v>2.5730873939394022E-2</v>
       </c>
-      <c r="M25" s="77">
+      <c r="N25" s="72">
         <f t="shared" si="40"/>
         <v>7.212270573459785E-2</v>
       </c>
-      <c r="N25" s="1">
+      <c r="O25" s="1">
         <v>90</v>
       </c>
-      <c r="P25" s="77">
-        <f t="shared" ref="P25:S25" si="41">P17/$O9</f>
+      <c r="Q25" s="72">
+        <f t="shared" ref="Q25:T25" si="41">Q17/$P9</f>
         <v>0.34495590218750005</v>
       </c>
-      <c r="Q25" s="77">
+      <c r="R25" s="72">
         <f t="shared" si="41"/>
         <v>6.2030012812499979E-2</v>
       </c>
-      <c r="R25" s="77">
+      <c r="S25" s="72">
         <f t="shared" si="41"/>
         <v>7.4140187500000287E-3</v>
       </c>
-      <c r="S25" s="77">
+      <c r="T25" s="72">
         <f t="shared" si="41"/>
         <v>1.0624148914258558E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>117</v>
       </c>
-      <c r="D27" s="77">
+      <c r="D27" s="72">
         <f>AVERAGE(D19:D25)</f>
         <v>0.37943065058402775</v>
       </c>
-      <c r="E27" s="77">
-        <f t="shared" ref="E27:S27" si="42">AVERAGE(E19:E25)</f>
+      <c r="E27" s="72">
+        <f t="shared" ref="E27:T27" si="42">AVERAGE(E19:E25)</f>
         <v>0.56048862894669604</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="72">
         <f t="shared" si="42"/>
         <v>0.33459269193866115</v>
       </c>
-      <c r="G27" s="77">
+      <c r="G27" s="72">
         <f t="shared" si="42"/>
         <v>6.2210869273222946E-2</v>
       </c>
-      <c r="J27" s="77">
+      <c r="H27" s="72">
+        <f>AVERAGE(H19:H25)</f>
+        <v>6.5714285714285711E-2</v>
+      </c>
+      <c r="K27" s="72">
         <f t="shared" si="42"/>
         <v>0.36258728832712711</v>
       </c>
-      <c r="K27" s="77">
+      <c r="L27" s="72">
         <f t="shared" si="42"/>
         <v>0.30510512391817574</v>
       </c>
-      <c r="L27" s="77">
+      <c r="M27" s="72">
         <f t="shared" si="42"/>
         <v>0.28388004588984589</v>
       </c>
-      <c r="M27" s="77">
+      <c r="N27" s="72">
         <f t="shared" si="42"/>
         <v>3.5164492264253125E-2</v>
       </c>
-      <c r="P27" s="77">
+      <c r="Q27" s="72">
         <f t="shared" si="42"/>
         <v>0.28219297519349817</v>
       </c>
-      <c r="Q27" s="77">
+      <c r="R27" s="72">
         <f t="shared" si="42"/>
         <v>0.29220421279971565</v>
       </c>
-      <c r="R27" s="77">
+      <c r="S27" s="72">
         <f t="shared" si="42"/>
         <v>0.2011122349260524</v>
       </c>
-      <c r="S27" s="77">
+      <c r="T27" s="72">
         <f t="shared" si="42"/>
         <v>4.8100676263536021E-2</v>
       </c>
@@ -43133,6 +43290,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>